--- a/Swash angle calc.xlsx
+++ b/Swash angle calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Phils Projects\Heli-config\rotorflight-config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Phils Projects\Heli-config\rotorflight-wiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t># rules    i  OP SRC DST WEIGHT OFFSET MODES</t>
   </si>
@@ -59,36 +59,6 @@
     <t>#-----------------------------------------</t>
   </si>
   <si>
-    <t xml:space="preserve"> add</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mixer rule </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> add </t>
-  </si>
-  <si>
     <t xml:space="preserve">Elevator servo Position </t>
   </si>
   <si>
@@ -96,12 +66,6 @@
   </si>
   <si>
     <t>Rear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t xml:space="preserve">## Enter the phase angle </t>
@@ -117,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +92,19 @@
     <font>
       <sz val="10"/>
       <color rgb="FF24292F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -164,92 +141,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -404,59 +301,61 @@
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP134"/>
+  <dimension ref="A1:AS134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF38" sqref="A1:AF38"/>
+      <selection activeCell="C16" sqref="C16:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,13 +726,13 @@
     <col min="20" max="23" width="4.7109375" customWidth="1"/>
     <col min="24" max="24" width="6.7109375" style="3" customWidth="1"/>
     <col min="25" max="25" width="6.7109375" customWidth="1"/>
-    <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="30" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="2.85546875" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" customWidth="1"/>
+    <col min="28" max="30" width="6.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="31" max="34" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -876,8 +775,11 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -905,9 +807,6 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
@@ -920,8 +819,11 @@
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="12"/>
       <c r="C3" s="10"/>
@@ -949,9 +851,6 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
@@ -964,8 +863,11 @@
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
@@ -993,9 +895,6 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="11"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
@@ -1008,8 +907,11 @@
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
@@ -1037,9 +939,6 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="11"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
@@ -1052,8 +951,11 @@
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
@@ -1081,9 +983,6 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
@@ -1096,8 +995,11 @@
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
@@ -1125,9 +1027,6 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="11"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
@@ -1140,8 +1039,11 @@
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
-    </row>
-    <row r="8" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+    </row>
+    <row r="8" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
@@ -1169,9 +1071,6 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="11"/>
       <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
@@ -1184,20 +1083,23 @@
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
-    </row>
-    <row r="9" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+    </row>
+    <row r="9" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="12"/>
       <c r="C9" s="10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -1218,12 +1120,10 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
-      <c r="AC9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
+      <c r="AF9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
@@ -1234,8 +1134,11 @@
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
-    </row>
-    <row r="10" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+    </row>
+    <row r="10" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
       <c r="C10" s="10"/>
@@ -1263,13 +1166,10 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="11"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
+      <c r="AF10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
@@ -1280,8 +1180,11 @@
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
-    </row>
-    <row r="11" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+    </row>
+    <row r="11" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
@@ -1290,7 +1193,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="5"/>
@@ -1313,13 +1216,10 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="11"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="1">
+      <c r="AE11" s="1">
         <f>COS(RADIANS($C$12))</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
+        <v>0.99026806874157036</v>
+      </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
@@ -1331,17 +1231,20 @@
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
-    </row>
-    <row r="12" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+    </row>
+    <row r="12" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="22">
-        <v>45</v>
+      <c r="C12" s="19">
+        <v>-8</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="5"/>
@@ -1364,21 +1267,21 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="1">
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25">
         <v>1000</v>
       </c>
-      <c r="AC12" s="1">
-        <f>AB12*$AB$11</f>
-        <v>707.10678118654755</v>
-      </c>
-      <c r="AD12" s="1">
-        <f>IF(F$9=$AC$9,AC12,AC12*-1)</f>
-        <v>707.10678118654755</v>
-      </c>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
+      <c r="AF12" s="25">
+        <f>AE12*$AE$11</f>
+        <v>990.26806874157035</v>
+      </c>
+      <c r="AG12" s="25">
+        <f>IF(F$9=$AF$9,AF12,AF12*-1)</f>
+        <v>990.26806874157035</v>
+      </c>
+      <c r="AH12" s="25"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -1387,15 +1290,18 @@
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="5"/>
@@ -1418,21 +1324,21 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="11"/>
       <c r="AA13" s="1"/>
-      <c r="AB13" s="1">
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25">
         <v>-500</v>
       </c>
-      <c r="AC13" s="1">
-        <f t="shared" ref="AC13:AC18" si="0">AB13*$AB$11</f>
-        <v>-353.55339059327378</v>
-      </c>
-      <c r="AD13" s="1">
-        <f t="shared" ref="AD13:AD15" si="1">IF(F$9=$AC$9,AC13,AC13*-1)</f>
-        <v>-353.55339059327378</v>
-      </c>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
+      <c r="AF13" s="25">
+        <f t="shared" ref="AF13:AF18" si="0">AE13*$AE$11</f>
+        <v>-495.13403437078517</v>
+      </c>
+      <c r="AG13" s="25">
+        <f>IF(F$9=$AF$9,AF13,AF13*-1)</f>
+        <v>-495.13403437078517</v>
+      </c>
+      <c r="AH13" s="25"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -1441,8 +1347,11 @@
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12"/>
       <c r="C14" s="10"/>
@@ -1470,21 +1379,21 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="1"/>
-      <c r="AB14" s="1">
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25">
         <v>-766</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AF14" s="25">
         <f t="shared" si="0"/>
-        <v>-541.64379438889546</v>
-      </c>
-      <c r="AD14" s="1">
-        <f t="shared" si="1"/>
-        <v>-541.64379438889546</v>
-      </c>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
+        <v>-758.54534065604287</v>
+      </c>
+      <c r="AG14" s="25">
+        <f>IF(F$9=$AF$9,AF14,AF14*-1)</f>
+        <v>-758.54534065604287</v>
+      </c>
+      <c r="AH14" s="25"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -1493,8 +1402,11 @@
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
-    </row>
-    <row r="15" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+    </row>
+    <row r="15" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="12"/>
       <c r="C15" s="10" t="s">
@@ -1528,21 +1440,21 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="1"/>
-      <c r="AB15" s="1">
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25">
         <v>-707</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AF15" s="25">
         <f t="shared" si="0"/>
-        <v>-499.92449429888916</v>
-      </c>
-      <c r="AD15" s="1">
-        <f t="shared" si="1"/>
-        <v>-499.92449429888916</v>
-      </c>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
+        <v>-700.11952460029022</v>
+      </c>
+      <c r="AG15" s="25">
+        <f>IF(F$9=$AF$9,AF15,AF15*-1)</f>
+        <v>-700.11952460029022</v>
+      </c>
+      <c r="AH15" s="25"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -1551,53 +1463,62 @@
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
-    </row>
-    <row r="16" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="26"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="29"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="23" t="s">
+      <c r="S16" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="26"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="29"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="1">
+      <c r="AB16" s="25">
+        <v>120</v>
+      </c>
+      <c r="AC16" s="25">
+        <v>140</v>
+      </c>
+      <c r="AD16" s="25">
+        <v>135</v>
+      </c>
+      <c r="AE16" s="25">
         <v>866</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AF16" s="25">
         <f t="shared" si="0"/>
-        <v>612.35447250755021</v>
-      </c>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
+        <v>857.57214753019991</v>
+      </c>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -1606,53 +1527,56 @@
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="30"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="32"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="27" t="s">
+      <c r="S17" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="30"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="32"/>
       <c r="Z17" s="11"/>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="1">
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25">
         <v>643</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AF17" s="25">
         <f t="shared" si="0"/>
-        <v>454.66966030295009</v>
-      </c>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
+        <v>636.74236820082979</v>
+      </c>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -1661,53 +1585,56 @@
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="27" t="s">
+      <c r="K18" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="30"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="32"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="27" t="s">
+      <c r="S18" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="30"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="32"/>
       <c r="Z18" s="11"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="1">
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25">
         <v>707</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AF18" s="25">
         <f t="shared" si="0"/>
-        <v>499.92449429888916</v>
-      </c>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
+        <v>700.11952460029022</v>
+      </c>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -1716,84 +1643,60 @@
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="28">
-        <v>0</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="29">
-        <v>500</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>24</v>
-      </c>
+      <c r="C19" s="33" t="str">
+        <f>"mixer rule  0 add SC S1 " &amp; RIGHT("     " &amp; "500",5) &amp;" 0"</f>
+        <v>mixer rule  0 add SC S1   500 0</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="28">
-        <v>0</v>
-      </c>
-      <c r="M19" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="P19" s="29">
-        <v>500</v>
-      </c>
-      <c r="Q19" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="K19" s="33" t="str">
+        <f>"mixer rule  0 add SC S1 " &amp; RIGHT("     " &amp; "500",5) &amp;" 0"</f>
+        <v>mixer rule  0 add SC S1   500 0</v>
+      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="35"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T19" s="28">
-        <v>0</v>
-      </c>
-      <c r="U19" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="V19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="W19" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="X19" s="29">
-        <v>500</v>
-      </c>
-      <c r="Y19" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="S19" s="33" t="str">
+        <f>"mixer rule  0 add SC S1 " &amp; RIGHT("     " &amp; "500",5) &amp;" 0"</f>
+        <v>mixer rule  0 add SC S1   500 0</v>
+      </c>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="35"/>
       <c r="Z19" s="11"/>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
+      <c r="AB19" s="25">
+        <v>500</v>
+      </c>
+      <c r="AC19" s="25">
+        <v>500</v>
+      </c>
+      <c r="AD19" s="25">
+        <v>500</v>
+      </c>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -1802,84 +1705,60 @@
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="28">
-        <v>1</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="29">
-        <v>500</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>24</v>
-      </c>
+      <c r="C20" s="33" t="str">
+        <f>"mixer rule  1 add SC S2 " &amp; RIGHT("     " &amp; "500",5) &amp;" 0"</f>
+        <v>mixer rule  1 add SC S2   500 0</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="28">
-        <v>1</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="P20" s="29">
-        <v>500</v>
-      </c>
-      <c r="Q20" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="K20" s="33" t="str">
+        <f>"mixer rule  1 add SC S2 " &amp; RIGHT("     " &amp; "500",5) &amp;" 0"</f>
+        <v>mixer rule  1 add SC S2   500 0</v>
+      </c>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="35"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T20" s="28">
-        <v>1</v>
-      </c>
-      <c r="U20" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="V20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="W20" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="X20" s="29">
-        <v>500</v>
-      </c>
-      <c r="Y20" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="S20" s="33" t="str">
+        <f>"mixer rule  1 add SC S2 " &amp; RIGHT("     " &amp; "500",5) &amp;" 0"</f>
+        <v>mixer rule  1 add SC S2   500 0</v>
+      </c>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="35"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
+      <c r="AB20" s="25">
+        <v>500</v>
+      </c>
+      <c r="AC20" s="25">
+        <v>500</v>
+      </c>
+      <c r="AD20" s="25">
+        <v>500</v>
+      </c>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -1888,84 +1767,60 @@
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="28">
-        <v>2</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="29">
-        <v>500</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>24</v>
-      </c>
+      <c r="C21" s="33" t="str">
+        <f>"mixer rule  2 add SC S3 " &amp; RIGHT("     " &amp; "500",5) &amp;" 0"</f>
+        <v>mixer rule  2 add SC S3   500 0</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="28">
-        <v>2</v>
-      </c>
-      <c r="M21" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="29">
-        <v>500</v>
-      </c>
-      <c r="Q21" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="K21" s="33" t="str">
+        <f>"mixer rule  2 add SC S3 " &amp; RIGHT("     " &amp; "500",5) &amp;" 0"</f>
+        <v>mixer rule  2 add SC S3   500 0</v>
+      </c>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="35"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T21" s="28">
-        <v>2</v>
-      </c>
-      <c r="U21" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="V21" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="W21" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="X21" s="29">
-        <v>500</v>
-      </c>
-      <c r="Y21" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="S21" s="33" t="str">
+        <f>"mixer rule  2 add SC S3 " &amp; RIGHT("     " &amp; "500",5) &amp;" 0"</f>
+        <v>mixer rule  2 add SC S3   500 0</v>
+      </c>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="35"/>
       <c r="Z21" s="11"/>
       <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
+      <c r="AB21" s="25">
+        <v>500</v>
+      </c>
+      <c r="AC21" s="25">
+        <v>500</v>
+      </c>
+      <c r="AD21" s="25">
+        <v>500</v>
+      </c>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -1974,48 +1829,51 @@
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="31"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="36"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="35"/>
       <c r="R22" s="10"/>
-      <c r="S22" s="27" t="s">
+      <c r="S22" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="36"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="35"/>
       <c r="Z22" s="11"/>
       <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -2024,87 +1882,63 @@
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="28">
-        <v>3</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="29">
-        <f>AC16</f>
-        <v>612.35447250755021</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>24</v>
-      </c>
+      <c r="C23" s="33" t="str">
+        <f>"mixer rule  3 add SR S2 "&amp;RIGHT("     " &amp; TEXT(AB23,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  3 add SR S2   858 0</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="28">
-        <v>3</v>
-      </c>
-      <c r="M23" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N23" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="O23" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="P23" s="29">
-        <f>AC17</f>
-        <v>454.66966030295009</v>
-      </c>
-      <c r="Q23" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="K23" s="33" t="str">
+        <f>"mixer rule  3 add SR S2 "&amp;RIGHT("     " &amp; TEXT(AC23,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  3 add SR S2   637 0</v>
+      </c>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="35"/>
       <c r="R23" s="10"/>
-      <c r="S23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T23" s="28">
-        <v>3</v>
-      </c>
-      <c r="U23" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="V23" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="W23" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="X23" s="29">
-        <f>AC18</f>
-        <v>499.92449429888916</v>
-      </c>
-      <c r="Y23" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="S23" s="33" t="str">
+        <f>"mixer rule  3 add SR S2 "&amp;RIGHT("     " &amp; TEXT(AD23,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  3 add SR S2   700 0</v>
+      </c>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="35"/>
       <c r="Z23" s="11"/>
       <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
+      <c r="AB23" s="4">
+        <f>$AF16</f>
+        <v>857.57214753019991</v>
+      </c>
+      <c r="AC23" s="4">
+        <f>$AF17</f>
+        <v>636.74236820082979</v>
+      </c>
+      <c r="AD23" s="4">
+        <f>$AF18</f>
+        <v>700.11952460029022</v>
+      </c>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -2113,87 +1947,63 @@
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="28">
-        <v>4</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="29">
-        <f>-H23</f>
-        <v>-612.35447250755021</v>
-      </c>
-      <c r="I24" s="31" t="s">
-        <v>25</v>
-      </c>
+      <c r="C24" s="33" t="str">
+        <f>"mixer rule  4 add SR S3 "&amp;RIGHT("     " &amp; TEXT(AB24,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  4 add SR S3  -858 0</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="35"/>
       <c r="J24" s="10"/>
-      <c r="K24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="28">
-        <v>4</v>
-      </c>
-      <c r="M24" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N24" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="29">
-        <f>-P23</f>
-        <v>-454.66966030295009</v>
-      </c>
-      <c r="Q24" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="K24" s="33" t="str">
+        <f>"mixer rule  4 add SR S3 "&amp;RIGHT("     " &amp; TEXT(AC24,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  4 add SR S3  -637 0</v>
+      </c>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="35"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T24" s="28">
-        <v>4</v>
-      </c>
-      <c r="U24" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="V24" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="W24" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="X24" s="29">
-        <f>-X23</f>
-        <v>-499.92449429888916</v>
-      </c>
-      <c r="Y24" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="S24" s="33" t="str">
+        <f>"mixer rule  4 add SR S3 "&amp;RIGHT("     " &amp; TEXT(AD24,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  4 add SR S3  -700 0</v>
+      </c>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="35"/>
       <c r="Z24" s="11"/>
       <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
+      <c r="AB24" s="4">
+        <f>-AB23</f>
+        <v>-857.57214753019991</v>
+      </c>
+      <c r="AC24" s="4">
+        <f>-AC23</f>
+        <v>-636.74236820082979</v>
+      </c>
+      <c r="AD24" s="4">
+        <f>-AD23</f>
+        <v>-700.11952460029022</v>
+      </c>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -2202,48 +2012,48 @@
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="31"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="36"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="35"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="27" t="s">
+      <c r="S25" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="36"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="35"/>
       <c r="Z25" s="11"/>
       <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -2252,87 +2062,63 @@
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="28">
-        <v>5</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="29">
-        <f>AD12</f>
-        <v>707.10678118654755</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>25</v>
-      </c>
+      <c r="C26" s="33" t="str">
+        <f>"mixer rule  5 add SP S1 "&amp;RIGHT("     " &amp; TEXT(AB26,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  5 add SP S1   990 0</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="28">
-        <v>5</v>
-      </c>
-      <c r="M26" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N26" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O26" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="P26" s="29">
-        <f>AD12</f>
-        <v>707.10678118654755</v>
-      </c>
-      <c r="Q26" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="K26" s="33" t="str">
+        <f>"mixer rule  5 add SP S1 "&amp;RIGHT("     " &amp; TEXT(AC26,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  5 add SP S1   990 0</v>
+      </c>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="35"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T26" s="28">
-        <v>5</v>
-      </c>
-      <c r="U26" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="V26" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="W26" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="X26" s="29">
-        <f>AD12</f>
-        <v>707.10678118654755</v>
-      </c>
-      <c r="Y26" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="S26" s="33" t="str">
+        <f>"mixer rule  5 add SP S1 "&amp;RIGHT("     " &amp; TEXT(AD26,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  5 add SP S1   990 0</v>
+      </c>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="35"/>
       <c r="Z26" s="11"/>
       <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
+      <c r="AB26" s="4">
+        <f>$AG12</f>
+        <v>990.26806874157035</v>
+      </c>
+      <c r="AC26" s="4">
+        <f>$AG12</f>
+        <v>990.26806874157035</v>
+      </c>
+      <c r="AD26" s="4">
+        <f>$AG12</f>
+        <v>990.26806874157035</v>
+      </c>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -2341,87 +2127,63 @@
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="28">
-        <v>6</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="29">
-        <f>AD13</f>
-        <v>-353.55339059327378</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>25</v>
-      </c>
+      <c r="C27" s="33" t="str">
+        <f>"mixer rule  6 add SP S2 "&amp;RIGHT("     " &amp; TEXT(AB27,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  6 add SP S2  -495 0</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="28">
-        <v>6</v>
-      </c>
-      <c r="M27" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N27" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O27" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="P27" s="29">
-        <f>AD14</f>
-        <v>-541.64379438889546</v>
-      </c>
-      <c r="Q27" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="K27" s="33" t="str">
+        <f>"mixer rule  6 add SP S2 "&amp;RIGHT("     " &amp; TEXT(AC27,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  6 add SP S2  -759 0</v>
+      </c>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="35"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T27" s="28">
-        <v>6</v>
-      </c>
-      <c r="U27" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="V27" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="W27" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="X27" s="29">
-        <f>AD15</f>
-        <v>-499.92449429888916</v>
-      </c>
-      <c r="Y27" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="S27" s="33" t="str">
+        <f>"mixer rule  6 add SP S2 "&amp;RIGHT("     " &amp; TEXT(AD27,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  6 add SP S2  -700 0</v>
+      </c>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="35"/>
       <c r="Z27" s="11"/>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
+      <c r="AB27" s="4">
+        <f>$AG13</f>
+        <v>-495.13403437078517</v>
+      </c>
+      <c r="AC27" s="4">
+        <f>$AG14</f>
+        <v>-758.54534065604287</v>
+      </c>
+      <c r="AD27" s="4">
+        <f>$AG15</f>
+        <v>-700.11952460029022</v>
+      </c>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -2430,87 +2192,63 @@
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="28">
-        <v>7</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="29">
-        <f>H27</f>
-        <v>-353.55339059327378</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>25</v>
-      </c>
+      <c r="C28" s="33" t="str">
+        <f>"mixer rule  7 add SP S3 "&amp;RIGHT("     " &amp; TEXT(AB28,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  7 add SP S3  -495 0</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="35"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="28">
-        <v>7</v>
-      </c>
-      <c r="M28" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O28" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="P28" s="29">
-        <f>P27</f>
-        <v>-541.64379438889546</v>
-      </c>
-      <c r="Q28" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="K28" s="33" t="str">
+        <f>"mixer rule  7 add SP S3 "&amp;RIGHT("     " &amp; TEXT(AC28,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  7 add SP S3  -759 0</v>
+      </c>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="35"/>
       <c r="R28" s="10"/>
-      <c r="S28" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T28" s="28">
-        <v>7</v>
-      </c>
-      <c r="U28" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="V28" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="W28" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="X28" s="29">
-        <f>X27</f>
-        <v>-499.92449429888916</v>
-      </c>
-      <c r="Y28" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="S28" s="33" t="str">
+        <f>"mixer rule  7 add SP S3 "&amp;RIGHT("     " &amp; TEXT(AD28,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  7 add SP S3  -700 0</v>
+      </c>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="35"/>
       <c r="Z28" s="11"/>
       <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
+      <c r="AB28" s="4">
+        <f>$AB27</f>
+        <v>-495.13403437078517</v>
+      </c>
+      <c r="AC28" s="4">
+        <f>AC27</f>
+        <v>-758.54534065604287</v>
+      </c>
+      <c r="AD28" s="4">
+        <f>AD27</f>
+        <v>-700.11952460029022</v>
+      </c>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -2519,48 +2257,48 @@
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="31"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="36"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="35"/>
       <c r="R29" s="10"/>
-      <c r="S29" s="27" t="s">
+      <c r="S29" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="36"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="35"/>
       <c r="Z29" s="11"/>
       <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -2569,87 +2307,63 @@
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="28">
-        <v>8</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="29">
-        <f>TAN(RADIANS($C$12))*H26</f>
-        <v>707.10678118654744</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>25</v>
-      </c>
+      <c r="C30" s="33" t="str">
+        <f>"mixer rule  8 add SR S1 "&amp;RIGHT("     " &amp; TEXT(AB30,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  8 add SR S1  -139 0</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="35"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" s="28">
-        <v>8</v>
-      </c>
-      <c r="M30" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N30" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="O30" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="P30" s="29">
-        <f>TAN(RADIANS($C$12))*P26</f>
-        <v>707.10678118654744</v>
-      </c>
-      <c r="Q30" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="K30" s="33" t="str">
+        <f>"mixer rule  8 add SR S1 "&amp;RIGHT("     " &amp; TEXT(AC30,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  8 add SR S1  -139 0</v>
+      </c>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="35"/>
       <c r="R30" s="10"/>
-      <c r="S30" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T30" s="28">
-        <v>8</v>
-      </c>
-      <c r="U30" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="V30" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="X30" s="29">
-        <f>TAN(RADIANS($C$12))*X26</f>
-        <v>707.10678118654744</v>
-      </c>
-      <c r="Y30" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="S30" s="33" t="str">
+        <f>"mixer rule  8 add SR S1 "&amp;RIGHT("     " &amp; TEXT(AD30,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  8 add SR S1  -139 0</v>
+      </c>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="35"/>
       <c r="Z30" s="11"/>
       <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
+      <c r="AB30" s="4">
+        <f>TAN(RADIANS($C$12))*AB26</f>
+        <v>-139.17310096006545</v>
+      </c>
+      <c r="AC30" s="4">
+        <f>TAN(RADIANS($C$12))*AC26</f>
+        <v>-139.17310096006545</v>
+      </c>
+      <c r="AD30" s="4">
+        <f>TAN(RADIANS($C$12))*AD26</f>
+        <v>-139.17310096006545</v>
+      </c>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -2658,87 +2372,63 @@
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="28">
-        <v>9</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="29">
-        <f>TAN(RADIANS($C$12))*H27</f>
-        <v>-353.55339059327372</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>25</v>
-      </c>
+      <c r="C31" s="33" t="str">
+        <f>"mixer rule  9 add SR S2 "&amp;RIGHT("     " &amp; TEXT(AB31,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  9 add SR S2    70 0</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="28">
-        <v>9</v>
-      </c>
-      <c r="M31" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N31" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="O31" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="P31" s="29">
-        <f>TAN(RADIANS($C$12))*P27</f>
-        <v>-541.64379438889534</v>
-      </c>
-      <c r="Q31" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="K31" s="33" t="str">
+        <f>"mixer rule  9 add SR S2 "&amp;RIGHT("     " &amp; TEXT(AC31,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  9 add SR S2   107 0</v>
+      </c>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="35"/>
       <c r="R31" s="10"/>
-      <c r="S31" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T31" s="28">
-        <v>9</v>
-      </c>
-      <c r="U31" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="V31" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="W31" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="X31" s="29">
-        <f>TAN(RADIANS($C$12))*X27</f>
-        <v>-499.9244942988891</v>
-      </c>
-      <c r="Y31" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="S31" s="33" t="str">
+        <f>"mixer rule  9 add SR S2 "&amp;RIGHT("     " &amp; TEXT(AD31,"0"),5)&amp; " 0"</f>
+        <v>mixer rule  9 add SR S2    98 0</v>
+      </c>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="35"/>
       <c r="Z31" s="11"/>
       <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
+      <c r="AB31" s="4">
+        <f>TAN(RADIANS($C$12))*AB27</f>
+        <v>69.586550480032727</v>
+      </c>
+      <c r="AC31" s="4">
+        <f>TAN(RADIANS($C$12))*AC27</f>
+        <v>106.60659533541013</v>
+      </c>
+      <c r="AD31" s="4">
+        <f>TAN(RADIANS($C$12))*AD27</f>
+        <v>98.395382378766271</v>
+      </c>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -2747,87 +2437,63 @@
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="28">
-        <v>10</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="29">
-        <f>TAN(RADIANS($C$12))*H28</f>
-        <v>-353.55339059327372</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>25</v>
-      </c>
+      <c r="C32" s="33" t="str">
+        <f>"mixer rule 10 add SR S3 "&amp;RIGHT("     " &amp; TEXT(AB32,"0"),5)&amp; " 0"</f>
+        <v>mixer rule 10 add SR S3    70 0</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="35"/>
       <c r="J32" s="10"/>
-      <c r="K32" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="28">
-        <v>10</v>
-      </c>
-      <c r="M32" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N32" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="O32" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="P32" s="29">
-        <f>TAN(RADIANS($C$12))*P28</f>
-        <v>-541.64379438889534</v>
-      </c>
-      <c r="Q32" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="K32" s="33" t="str">
+        <f>"mixer rule 10 add SR S3 "&amp;RIGHT("     " &amp; TEXT(AC32,"0"),5)&amp; " 0"</f>
+        <v>mixer rule 10 add SR S3   107 0</v>
+      </c>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="35"/>
       <c r="R32" s="10"/>
-      <c r="S32" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T32" s="28">
-        <v>10</v>
-      </c>
-      <c r="U32" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="V32" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="W32" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="X32" s="29">
-        <f>TAN(RADIANS($C$12))*X28</f>
-        <v>-499.9244942988891</v>
-      </c>
-      <c r="Y32" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="S32" s="33" t="str">
+        <f>"mixer rule 10 add SR S3 "&amp;RIGHT("     " &amp; TEXT(AD32,"0"),5)&amp; " 0"</f>
+        <v>mixer rule 10 add SR S3    98 0</v>
+      </c>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="35"/>
       <c r="Z32" s="11"/>
       <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
+      <c r="AB32" s="4">
+        <f>TAN(RADIANS($C$12))*AB28</f>
+        <v>69.586550480032727</v>
+      </c>
+      <c r="AC32" s="4">
+        <f>TAN(RADIANS($C$12))*AC28</f>
+        <v>106.60659533541013</v>
+      </c>
+      <c r="AD32" s="4">
+        <f>TAN(RADIANS($C$12))*AD28</f>
+        <v>98.395382378766271</v>
+      </c>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -2836,48 +2502,48 @@
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="31"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="36"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="35"/>
       <c r="R33" s="10"/>
-      <c r="S33" s="27" t="s">
+      <c r="S33" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="36"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="35"/>
       <c r="Z33" s="11"/>
       <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -2886,87 +2552,63 @@
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
       <c r="AP33" s="1"/>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="28">
-        <v>11</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="29">
-        <f>TAN(RADIANS($C$12))*H23</f>
-        <v>612.3544725075501</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>25</v>
-      </c>
+      <c r="C34" s="33" t="str">
+        <f>"mixer rule 11 add SP S2 "&amp;RIGHT("     " &amp; TEXT(AB34,"0"),5)&amp; " 0"</f>
+        <v>mixer rule 11 add SP S2  -121 0</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="35"/>
       <c r="J34" s="10"/>
-      <c r="K34" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" s="28">
-        <v>11</v>
-      </c>
-      <c r="M34" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N34" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O34" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="P34" s="29">
-        <f>TAN(RADIANS($C$12))*P23</f>
-        <v>454.66966030295004</v>
-      </c>
-      <c r="Q34" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="K34" s="33" t="str">
+        <f>"mixer rule 11 add SP S2 "&amp;RIGHT("     " &amp; TEXT(AC34,"0"),5)&amp; " 0"</f>
+        <v>mixer rule 11 add SP S2   -89 0</v>
+      </c>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="35"/>
       <c r="R34" s="10"/>
-      <c r="S34" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T34" s="28">
-        <v>11</v>
-      </c>
-      <c r="U34" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="V34" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="W34" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="X34" s="29">
-        <f>TAN(RADIANS($C$12))*X23</f>
-        <v>499.9244942988891</v>
-      </c>
-      <c r="Y34" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="S34" s="33" t="str">
+        <f>"mixer rule 11 add SP S2 "&amp;RIGHT("     " &amp; TEXT(AD34,"0"),5)&amp; " 0"</f>
+        <v>mixer rule 11 add SP S2   -98 0</v>
+      </c>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="35"/>
       <c r="Z34" s="11"/>
       <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
+      <c r="AB34" s="4">
+        <f>TAN(RADIANS($C$12))*AB23</f>
+        <v>-120.52390543141668</v>
+      </c>
+      <c r="AC34" s="4">
+        <f>TAN(RADIANS($C$12))*AC23</f>
+        <v>-89.488303917322099</v>
+      </c>
+      <c r="AD34" s="4">
+        <f>TAN(RADIANS($C$12))*AD23</f>
+        <v>-98.395382378766271</v>
+      </c>
+      <c r="AE34" s="25"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -2975,87 +2617,63 @@
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
-    </row>
-    <row r="35" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+    </row>
+    <row r="35" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="33">
-        <v>12</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="34">
-        <f>TAN(RADIANS($C$12))*H24</f>
-        <v>-612.3544725075501</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>25</v>
-      </c>
+      <c r="C35" s="36" t="str">
+        <f>"mixer rule 12 add SP S3 "&amp;RIGHT("     " &amp; TEXT(AB35,"0"),5)&amp; " 0"</f>
+        <v>mixer rule 12 add SP S3   121 0</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="38"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="L35" s="33">
-        <v>12</v>
-      </c>
-      <c r="M35" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="N35" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="O35" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="P35" s="34">
-        <f>TAN(RADIANS($C$12))*P24</f>
-        <v>-454.66966030295004</v>
-      </c>
-      <c r="Q35" s="37" t="s">
-        <v>18</v>
-      </c>
+      <c r="K35" s="36" t="str">
+        <f>"mixer rule 12 add SP S3 "&amp;RIGHT("     " &amp; TEXT(AC35,"0"),5)&amp; " 0"</f>
+        <v>mixer rule 12 add SP S3    89 0</v>
+      </c>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="38"/>
       <c r="R35" s="10"/>
-      <c r="S35" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="T35" s="33">
-        <v>12</v>
-      </c>
-      <c r="U35" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="V35" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="W35" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="X35" s="34">
-        <f>TAN(RADIANS($C$12))*X24</f>
-        <v>-499.9244942988891</v>
-      </c>
-      <c r="Y35" s="37" t="s">
-        <v>18</v>
-      </c>
+      <c r="S35" s="36" t="str">
+        <f>"mixer rule 12 add SP S3 "&amp;RIGHT("     " &amp; TEXT(AD35,"0"),5)&amp; " 0"</f>
+        <v>mixer rule 12 add SP S3    98 0</v>
+      </c>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="38"/>
       <c r="Z35" s="11"/>
       <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
+      <c r="AB35" s="4">
+        <f>TAN(RADIANS($C$12))*AB24</f>
+        <v>120.52390543141668</v>
+      </c>
+      <c r="AC35" s="4">
+        <f>TAN(RADIANS($C$12))*AC24</f>
+        <v>89.488303917322099</v>
+      </c>
+      <c r="AD35" s="4">
+        <f>TAN(RADIANS($C$12))*AD24</f>
+        <v>98.395382378766271</v>
+      </c>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -3064,8 +2682,11 @@
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
       <c r="AP35" s="1"/>
-    </row>
-    <row r="36" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="12"/>
       <c r="C36" s="10"/>
@@ -3093,9 +2714,7 @@
       <c r="Y36" s="10"/>
       <c r="Z36" s="11"/>
       <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
+      <c r="AB36" s="24"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
@@ -3108,8 +2727,11 @@
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
-    </row>
-    <row r="37" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+    </row>
+    <row r="37" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3137,9 +2759,7 @@
       <c r="Y37" s="14"/>
       <c r="Z37" s="18"/>
       <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
+      <c r="AB37" s="24"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
@@ -3152,11 +2772,14 @@
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="38"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -3181,9 +2804,6 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
@@ -3196,11 +2816,14 @@
       <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="38"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -3225,9 +2848,6 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
@@ -3240,8 +2860,11 @@
       <c r="AN39" s="1"/>
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3269,9 +2892,6 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
@@ -3284,8 +2904,11 @@
       <c r="AN40" s="1"/>
       <c r="AO40" s="1"/>
       <c r="AP40" s="1"/>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3313,9 +2936,6 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
@@ -3328,8 +2948,11 @@
       <c r="AN41" s="1"/>
       <c r="AO41" s="1"/>
       <c r="AP41" s="1"/>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3357,9 +2980,6 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
@@ -3372,8 +2992,11 @@
       <c r="AN42" s="1"/>
       <c r="AO42" s="1"/>
       <c r="AP42" s="1"/>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3401,9 +3024,6 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
@@ -3416,8 +3036,11 @@
       <c r="AN43" s="1"/>
       <c r="AO43" s="1"/>
       <c r="AP43" s="1"/>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3445,9 +3068,6 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
@@ -3460,8 +3080,11 @@
       <c r="AN44" s="1"/>
       <c r="AO44" s="1"/>
       <c r="AP44" s="1"/>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3489,9 +3112,6 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
@@ -3504,8 +3124,11 @@
       <c r="AN45" s="1"/>
       <c r="AO45" s="1"/>
       <c r="AP45" s="1"/>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3533,9 +3156,6 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
-      <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
@@ -3548,8 +3168,11 @@
       <c r="AN46" s="1"/>
       <c r="AO46" s="1"/>
       <c r="AP46" s="1"/>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3577,9 +3200,6 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
@@ -3592,8 +3212,11 @@
       <c r="AN47" s="1"/>
       <c r="AO47" s="1"/>
       <c r="AP47" s="1"/>
-    </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3621,9 +3244,6 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
@@ -3636,8 +3256,11 @@
       <c r="AN48" s="1"/>
       <c r="AO48" s="1"/>
       <c r="AP48" s="1"/>
-    </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3665,9 +3288,6 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
@@ -3680,8 +3300,11 @@
       <c r="AN49" s="1"/>
       <c r="AO49" s="1"/>
       <c r="AP49" s="1"/>
-    </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3709,9 +3332,6 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
@@ -3724,8 +3344,11 @@
       <c r="AN50" s="1"/>
       <c r="AO50" s="1"/>
       <c r="AP50" s="1"/>
-    </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3753,9 +3376,6 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
@@ -3768,8 +3388,11 @@
       <c r="AN51" s="1"/>
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
-    </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3797,9 +3420,6 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
@@ -3812,8 +3432,11 @@
       <c r="AN52" s="1"/>
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
-    </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3841,9 +3464,6 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
@@ -3856,8 +3476,11 @@
       <c r="AN53" s="1"/>
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
-    </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3885,9 +3508,6 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
@@ -3900,8 +3520,11 @@
       <c r="AN54" s="1"/>
       <c r="AO54" s="1"/>
       <c r="AP54" s="1"/>
-    </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3929,9 +3552,6 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
@@ -3944,8 +3564,11 @@
       <c r="AN55" s="1"/>
       <c r="AO55" s="1"/>
       <c r="AP55" s="1"/>
-    </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3973,9 +3596,6 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
@@ -3988,8 +3608,11 @@
       <c r="AN56" s="1"/>
       <c r="AO56" s="1"/>
       <c r="AP56" s="1"/>
-    </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4017,9 +3640,6 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
@@ -4032,8 +3652,11 @@
       <c r="AN57" s="1"/>
       <c r="AO57" s="1"/>
       <c r="AP57" s="1"/>
-    </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4061,9 +3684,6 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
@@ -4076,8 +3696,11 @@
       <c r="AN58" s="1"/>
       <c r="AO58" s="1"/>
       <c r="AP58" s="1"/>
-    </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4105,9 +3728,6 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
@@ -4120,8 +3740,11 @@
       <c r="AN59" s="1"/>
       <c r="AO59" s="1"/>
       <c r="AP59" s="1"/>
-    </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4149,9 +3772,6 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
@@ -4164,8 +3784,11 @@
       <c r="AN60" s="1"/>
       <c r="AO60" s="1"/>
       <c r="AP60" s="1"/>
-    </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4193,9 +3816,6 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
@@ -4208,8 +3828,11 @@
       <c r="AN61" s="1"/>
       <c r="AO61" s="1"/>
       <c r="AP61" s="1"/>
-    </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4237,9 +3860,6 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
@@ -4252,8 +3872,11 @@
       <c r="AN62" s="1"/>
       <c r="AO62" s="1"/>
       <c r="AP62" s="1"/>
-    </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4281,9 +3904,6 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
-      <c r="AB63" s="1"/>
-      <c r="AC63" s="1"/>
-      <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
@@ -4296,8 +3916,11 @@
       <c r="AN63" s="1"/>
       <c r="AO63" s="1"/>
       <c r="AP63" s="1"/>
-    </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4325,9 +3948,6 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
-      <c r="AB64" s="1"/>
-      <c r="AC64" s="1"/>
-      <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
@@ -4340,8 +3960,11 @@
       <c r="AN64" s="1"/>
       <c r="AO64" s="1"/>
       <c r="AP64" s="1"/>
-    </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4369,9 +3992,6 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
-      <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
@@ -4384,8 +4004,11 @@
       <c r="AN65" s="1"/>
       <c r="AO65" s="1"/>
       <c r="AP65" s="1"/>
-    </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4413,9 +4036,6 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
-      <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
-      <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
@@ -4428,8 +4048,11 @@
       <c r="AN66" s="1"/>
       <c r="AO66" s="1"/>
       <c r="AP66" s="1"/>
-    </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4457,9 +4080,6 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
       <c r="AG67" s="1"/>
@@ -4472,8 +4092,11 @@
       <c r="AN67" s="1"/>
       <c r="AO67" s="1"/>
       <c r="AP67" s="1"/>
-    </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4501,9 +4124,6 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
@@ -4516,8 +4136,11 @@
       <c r="AN68" s="1"/>
       <c r="AO68" s="1"/>
       <c r="AP68" s="1"/>
-    </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4545,9 +4168,6 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
@@ -4560,8 +4180,11 @@
       <c r="AN69" s="1"/>
       <c r="AO69" s="1"/>
       <c r="AP69" s="1"/>
-    </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4589,9 +4212,6 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
-      <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
@@ -4604,8 +4224,11 @@
       <c r="AN70" s="1"/>
       <c r="AO70" s="1"/>
       <c r="AP70" s="1"/>
-    </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4633,9 +4256,6 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
@@ -4648,8 +4268,11 @@
       <c r="AN71" s="1"/>
       <c r="AO71" s="1"/>
       <c r="AP71" s="1"/>
-    </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4677,9 +4300,6 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
       <c r="AG72" s="1"/>
@@ -4692,8 +4312,11 @@
       <c r="AN72" s="1"/>
       <c r="AO72" s="1"/>
       <c r="AP72" s="1"/>
-    </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4721,9 +4344,6 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
       <c r="AF73" s="1"/>
       <c r="AG73" s="1"/>
@@ -4736,8 +4356,11 @@
       <c r="AN73" s="1"/>
       <c r="AO73" s="1"/>
       <c r="AP73" s="1"/>
-    </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="1"/>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4765,9 +4388,6 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
       <c r="AF74" s="1"/>
       <c r="AG74" s="1"/>
@@ -4780,8 +4400,11 @@
       <c r="AN74" s="1"/>
       <c r="AO74" s="1"/>
       <c r="AP74" s="1"/>
-    </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="1"/>
+      <c r="AS74" s="1"/>
+    </row>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4809,9 +4432,6 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
-      <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
       <c r="AF75" s="1"/>
       <c r="AG75" s="1"/>
@@ -4824,8 +4444,11 @@
       <c r="AN75" s="1"/>
       <c r="AO75" s="1"/>
       <c r="AP75" s="1"/>
-    </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+    </row>
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4853,9 +4476,6 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
-      <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
-      <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
       <c r="AF76" s="1"/>
       <c r="AG76" s="1"/>
@@ -4868,8 +4488,11 @@
       <c r="AN76" s="1"/>
       <c r="AO76" s="1"/>
       <c r="AP76" s="1"/>
-    </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+      <c r="AS76" s="1"/>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4897,9 +4520,6 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
-      <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
-      <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
       <c r="AG77" s="1"/>
@@ -4912,8 +4532,11 @@
       <c r="AN77" s="1"/>
       <c r="AO77" s="1"/>
       <c r="AP77" s="1"/>
-    </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+    </row>
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4941,9 +4564,6 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
       <c r="AG78" s="1"/>
@@ -4956,8 +4576,11 @@
       <c r="AN78" s="1"/>
       <c r="AO78" s="1"/>
       <c r="AP78" s="1"/>
-    </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+    </row>
+    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4985,9 +4608,6 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
       <c r="AG79" s="1"/>
@@ -5000,8 +4620,11 @@
       <c r="AN79" s="1"/>
       <c r="AO79" s="1"/>
       <c r="AP79" s="1"/>
-    </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5029,9 +4652,6 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
@@ -5044,8 +4664,11 @@
       <c r="AN80" s="1"/>
       <c r="AO80" s="1"/>
       <c r="AP80" s="1"/>
-    </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+    </row>
+    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5073,9 +4696,6 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
       <c r="AF81" s="1"/>
       <c r="AG81" s="1"/>
@@ -5088,8 +4708,11 @@
       <c r="AN81" s="1"/>
       <c r="AO81" s="1"/>
       <c r="AP81" s="1"/>
-    </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="1"/>
+    </row>
+    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5117,9 +4740,6 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
-      <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
-      <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
       <c r="AF82" s="1"/>
       <c r="AG82" s="1"/>
@@ -5132,8 +4752,11 @@
       <c r="AN82" s="1"/>
       <c r="AO82" s="1"/>
       <c r="AP82" s="1"/>
-    </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+      <c r="AS82" s="1"/>
+    </row>
+    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5161,9 +4784,6 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
-      <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
       <c r="AF83" s="1"/>
       <c r="AG83" s="1"/>
@@ -5176,8 +4796,11 @@
       <c r="AN83" s="1"/>
       <c r="AO83" s="1"/>
       <c r="AP83" s="1"/>
-    </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+    </row>
+    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5205,9 +4828,6 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
-      <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
-      <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
       <c r="AF84" s="1"/>
       <c r="AG84" s="1"/>
@@ -5220,8 +4840,11 @@
       <c r="AN84" s="1"/>
       <c r="AO84" s="1"/>
       <c r="AP84" s="1"/>
-    </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ84" s="1"/>
+      <c r="AR84" s="1"/>
+      <c r="AS84" s="1"/>
+    </row>
+    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5249,9 +4872,6 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
-      <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
       <c r="AF85" s="1"/>
       <c r="AG85" s="1"/>
@@ -5264,8 +4884,11 @@
       <c r="AN85" s="1"/>
       <c r="AO85" s="1"/>
       <c r="AP85" s="1"/>
-    </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+    </row>
+    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5293,9 +4916,6 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
-      <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
-      <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
       <c r="AF86" s="1"/>
       <c r="AG86" s="1"/>
@@ -5308,8 +4928,11 @@
       <c r="AN86" s="1"/>
       <c r="AO86" s="1"/>
       <c r="AP86" s="1"/>
-    </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+    </row>
+    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5337,9 +4960,6 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
-      <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
       <c r="AF87" s="1"/>
       <c r="AG87" s="1"/>
@@ -5352,8 +4972,11 @@
       <c r="AN87" s="1"/>
       <c r="AO87" s="1"/>
       <c r="AP87" s="1"/>
-    </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+    </row>
+    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5381,9 +5004,6 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
-      <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
       <c r="AF88" s="1"/>
       <c r="AG88" s="1"/>
@@ -5396,8 +5016,11 @@
       <c r="AN88" s="1"/>
       <c r="AO88" s="1"/>
       <c r="AP88" s="1"/>
-    </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+    </row>
+    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5425,9 +5048,6 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
-      <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
-      <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
       <c r="AF89" s="1"/>
       <c r="AG89" s="1"/>
@@ -5440,8 +5060,11 @@
       <c r="AN89" s="1"/>
       <c r="AO89" s="1"/>
       <c r="AP89" s="1"/>
-    </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+    </row>
+    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5469,9 +5092,6 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
-      <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
       <c r="AF90" s="1"/>
       <c r="AG90" s="1"/>
@@ -5484,8 +5104,11 @@
       <c r="AN90" s="1"/>
       <c r="AO90" s="1"/>
       <c r="AP90" s="1"/>
-    </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+    </row>
+    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5513,9 +5136,6 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
       <c r="AF91" s="1"/>
       <c r="AG91" s="1"/>
@@ -5528,8 +5148,11 @@
       <c r="AN91" s="1"/>
       <c r="AO91" s="1"/>
       <c r="AP91" s="1"/>
-    </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
+    </row>
+    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5557,9 +5180,6 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
-      <c r="AB92" s="1"/>
-      <c r="AC92" s="1"/>
-      <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
       <c r="AF92" s="1"/>
       <c r="AG92" s="1"/>
@@ -5572,8 +5192,11 @@
       <c r="AN92" s="1"/>
       <c r="AO92" s="1"/>
       <c r="AP92" s="1"/>
-    </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ92" s="1"/>
+      <c r="AR92" s="1"/>
+      <c r="AS92" s="1"/>
+    </row>
+    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5601,9 +5224,6 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
-      <c r="AB93" s="1"/>
-      <c r="AC93" s="1"/>
-      <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
       <c r="AF93" s="1"/>
       <c r="AG93" s="1"/>
@@ -5616,8 +5236,11 @@
       <c r="AN93" s="1"/>
       <c r="AO93" s="1"/>
       <c r="AP93" s="1"/>
-    </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+    </row>
+    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5645,9 +5268,6 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
-      <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
       <c r="AG94" s="1"/>
@@ -5660,8 +5280,11 @@
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
       <c r="AP94" s="1"/>
-    </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+    </row>
+    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5689,9 +5312,6 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
-      <c r="AB95" s="1"/>
-      <c r="AC95" s="1"/>
-      <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
       <c r="AF95" s="1"/>
       <c r="AG95" s="1"/>
@@ -5704,8 +5324,11 @@
       <c r="AN95" s="1"/>
       <c r="AO95" s="1"/>
       <c r="AP95" s="1"/>
-    </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="1"/>
+      <c r="AS95" s="1"/>
+    </row>
+    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5733,9 +5356,6 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
-      <c r="AB96" s="1"/>
-      <c r="AC96" s="1"/>
-      <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
       <c r="AF96" s="1"/>
       <c r="AG96" s="1"/>
@@ -5748,8 +5368,11 @@
       <c r="AN96" s="1"/>
       <c r="AO96" s="1"/>
       <c r="AP96" s="1"/>
-    </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ96" s="1"/>
+      <c r="AR96" s="1"/>
+      <c r="AS96" s="1"/>
+    </row>
+    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5777,9 +5400,6 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
-      <c r="AB97" s="1"/>
-      <c r="AC97" s="1"/>
-      <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
       <c r="AF97" s="1"/>
       <c r="AG97" s="1"/>
@@ -5792,8 +5412,11 @@
       <c r="AN97" s="1"/>
       <c r="AO97" s="1"/>
       <c r="AP97" s="1"/>
-    </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ97" s="1"/>
+      <c r="AR97" s="1"/>
+      <c r="AS97" s="1"/>
+    </row>
+    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5821,9 +5444,6 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
-      <c r="AB98" s="1"/>
-      <c r="AC98" s="1"/>
-      <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
       <c r="AF98" s="1"/>
       <c r="AG98" s="1"/>
@@ -5836,8 +5456,11 @@
       <c r="AN98" s="1"/>
       <c r="AO98" s="1"/>
       <c r="AP98" s="1"/>
-    </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ98" s="1"/>
+      <c r="AR98" s="1"/>
+      <c r="AS98" s="1"/>
+    </row>
+    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5865,9 +5488,6 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
-      <c r="AB99" s="1"/>
-      <c r="AC99" s="1"/>
-      <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
       <c r="AF99" s="1"/>
       <c r="AG99" s="1"/>
@@ -5880,8 +5500,11 @@
       <c r="AN99" s="1"/>
       <c r="AO99" s="1"/>
       <c r="AP99" s="1"/>
-    </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ99" s="1"/>
+      <c r="AR99" s="1"/>
+      <c r="AS99" s="1"/>
+    </row>
+    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5909,9 +5532,6 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
-      <c r="AB100" s="1"/>
-      <c r="AC100" s="1"/>
-      <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
       <c r="AF100" s="1"/>
       <c r="AG100" s="1"/>
@@ -5924,8 +5544,11 @@
       <c r="AN100" s="1"/>
       <c r="AO100" s="1"/>
       <c r="AP100" s="1"/>
-    </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ100" s="1"/>
+      <c r="AR100" s="1"/>
+      <c r="AS100" s="1"/>
+    </row>
+    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5953,9 +5576,6 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
-      <c r="AB101" s="1"/>
-      <c r="AC101" s="1"/>
-      <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
       <c r="AF101" s="1"/>
       <c r="AG101" s="1"/>
@@ -5968,8 +5588,11 @@
       <c r="AN101" s="1"/>
       <c r="AO101" s="1"/>
       <c r="AP101" s="1"/>
-    </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ101" s="1"/>
+      <c r="AR101" s="1"/>
+      <c r="AS101" s="1"/>
+    </row>
+    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5997,9 +5620,6 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
-      <c r="AB102" s="1"/>
-      <c r="AC102" s="1"/>
-      <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
       <c r="AF102" s="1"/>
       <c r="AG102" s="1"/>
@@ -6012,8 +5632,11 @@
       <c r="AN102" s="1"/>
       <c r="AO102" s="1"/>
       <c r="AP102" s="1"/>
-    </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ102" s="1"/>
+      <c r="AR102" s="1"/>
+      <c r="AS102" s="1"/>
+    </row>
+    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -6041,9 +5664,6 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
-      <c r="AB103" s="1"/>
-      <c r="AC103" s="1"/>
-      <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
       <c r="AF103" s="1"/>
       <c r="AG103" s="1"/>
@@ -6056,8 +5676,11 @@
       <c r="AN103" s="1"/>
       <c r="AO103" s="1"/>
       <c r="AP103" s="1"/>
-    </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ103" s="1"/>
+      <c r="AR103" s="1"/>
+      <c r="AS103" s="1"/>
+    </row>
+    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -6085,9 +5708,6 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
-      <c r="AB104" s="1"/>
-      <c r="AC104" s="1"/>
-      <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
       <c r="AF104" s="1"/>
       <c r="AG104" s="1"/>
@@ -6100,8 +5720,11 @@
       <c r="AN104" s="1"/>
       <c r="AO104" s="1"/>
       <c r="AP104" s="1"/>
-    </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ104" s="1"/>
+      <c r="AR104" s="1"/>
+      <c r="AS104" s="1"/>
+    </row>
+    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -6129,9 +5752,6 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
-      <c r="AB105" s="1"/>
-      <c r="AC105" s="1"/>
-      <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
       <c r="AF105" s="1"/>
       <c r="AG105" s="1"/>
@@ -6144,8 +5764,11 @@
       <c r="AN105" s="1"/>
       <c r="AO105" s="1"/>
       <c r="AP105" s="1"/>
-    </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ105" s="1"/>
+      <c r="AR105" s="1"/>
+      <c r="AS105" s="1"/>
+    </row>
+    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -6173,9 +5796,6 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
-      <c r="AB106" s="1"/>
-      <c r="AC106" s="1"/>
-      <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
       <c r="AF106" s="1"/>
       <c r="AG106" s="1"/>
@@ -6188,8 +5808,11 @@
       <c r="AN106" s="1"/>
       <c r="AO106" s="1"/>
       <c r="AP106" s="1"/>
-    </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ106" s="1"/>
+      <c r="AR106" s="1"/>
+      <c r="AS106" s="1"/>
+    </row>
+    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -6217,9 +5840,6 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
-      <c r="AB107" s="1"/>
-      <c r="AC107" s="1"/>
-      <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
       <c r="AF107" s="1"/>
       <c r="AG107" s="1"/>
@@ -6232,8 +5852,11 @@
       <c r="AN107" s="1"/>
       <c r="AO107" s="1"/>
       <c r="AP107" s="1"/>
-    </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ107" s="1"/>
+      <c r="AR107" s="1"/>
+      <c r="AS107" s="1"/>
+    </row>
+    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6261,9 +5884,6 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
-      <c r="AB108" s="1"/>
-      <c r="AC108" s="1"/>
-      <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
       <c r="AF108" s="1"/>
       <c r="AG108" s="1"/>
@@ -6276,8 +5896,11 @@
       <c r="AN108" s="1"/>
       <c r="AO108" s="1"/>
       <c r="AP108" s="1"/>
-    </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ108" s="1"/>
+      <c r="AR108" s="1"/>
+      <c r="AS108" s="1"/>
+    </row>
+    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6305,9 +5928,6 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
-      <c r="AB109" s="1"/>
-      <c r="AC109" s="1"/>
-      <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
       <c r="AF109" s="1"/>
       <c r="AG109" s="1"/>
@@ -6320,8 +5940,11 @@
       <c r="AN109" s="1"/>
       <c r="AO109" s="1"/>
       <c r="AP109" s="1"/>
-    </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ109" s="1"/>
+      <c r="AR109" s="1"/>
+      <c r="AS109" s="1"/>
+    </row>
+    <row r="110" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -6349,9 +5972,6 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
-      <c r="AB110" s="1"/>
-      <c r="AC110" s="1"/>
-      <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
       <c r="AF110" s="1"/>
       <c r="AG110" s="1"/>
@@ -6364,8 +5984,11 @@
       <c r="AN110" s="1"/>
       <c r="AO110" s="1"/>
       <c r="AP110" s="1"/>
-    </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ110" s="1"/>
+      <c r="AR110" s="1"/>
+      <c r="AS110" s="1"/>
+    </row>
+    <row r="111" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -6393,9 +6016,6 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
-      <c r="AB111" s="1"/>
-      <c r="AC111" s="1"/>
-      <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
       <c r="AF111" s="1"/>
       <c r="AG111" s="1"/>
@@ -6408,8 +6028,11 @@
       <c r="AN111" s="1"/>
       <c r="AO111" s="1"/>
       <c r="AP111" s="1"/>
-    </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ111" s="1"/>
+      <c r="AR111" s="1"/>
+      <c r="AS111" s="1"/>
+    </row>
+    <row r="112" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -6437,9 +6060,6 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
-      <c r="AB112" s="1"/>
-      <c r="AC112" s="1"/>
-      <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
       <c r="AF112" s="1"/>
       <c r="AG112" s="1"/>
@@ -6452,8 +6072,11 @@
       <c r="AN112" s="1"/>
       <c r="AO112" s="1"/>
       <c r="AP112" s="1"/>
-    </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ112" s="1"/>
+      <c r="AR112" s="1"/>
+      <c r="AS112" s="1"/>
+    </row>
+    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -6481,9 +6104,6 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
-      <c r="AB113" s="1"/>
-      <c r="AC113" s="1"/>
-      <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
       <c r="AF113" s="1"/>
       <c r="AG113" s="1"/>
@@ -6496,8 +6116,11 @@
       <c r="AN113" s="1"/>
       <c r="AO113" s="1"/>
       <c r="AP113" s="1"/>
-    </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ113" s="1"/>
+      <c r="AR113" s="1"/>
+      <c r="AS113" s="1"/>
+    </row>
+    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -6525,9 +6148,6 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
-      <c r="AB114" s="1"/>
-      <c r="AC114" s="1"/>
-      <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
       <c r="AF114" s="1"/>
       <c r="AG114" s="1"/>
@@ -6540,8 +6160,11 @@
       <c r="AN114" s="1"/>
       <c r="AO114" s="1"/>
       <c r="AP114" s="1"/>
-    </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ114" s="1"/>
+      <c r="AR114" s="1"/>
+      <c r="AS114" s="1"/>
+    </row>
+    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -6569,9 +6192,6 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
-      <c r="AB115" s="1"/>
-      <c r="AC115" s="1"/>
-      <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
       <c r="AF115" s="1"/>
       <c r="AG115" s="1"/>
@@ -6584,8 +6204,11 @@
       <c r="AN115" s="1"/>
       <c r="AO115" s="1"/>
       <c r="AP115" s="1"/>
-    </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ115" s="1"/>
+      <c r="AR115" s="1"/>
+      <c r="AS115" s="1"/>
+    </row>
+    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -6613,9 +6236,6 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
-      <c r="AB116" s="1"/>
-      <c r="AC116" s="1"/>
-      <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="1"/>
       <c r="AG116" s="1"/>
@@ -6628,8 +6248,11 @@
       <c r="AN116" s="1"/>
       <c r="AO116" s="1"/>
       <c r="AP116" s="1"/>
-    </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ116" s="1"/>
+      <c r="AR116" s="1"/>
+      <c r="AS116" s="1"/>
+    </row>
+    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6657,9 +6280,6 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
-      <c r="AB117" s="1"/>
-      <c r="AC117" s="1"/>
-      <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
       <c r="AF117" s="1"/>
       <c r="AG117" s="1"/>
@@ -6672,8 +6292,11 @@
       <c r="AN117" s="1"/>
       <c r="AO117" s="1"/>
       <c r="AP117" s="1"/>
-    </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ117" s="1"/>
+      <c r="AR117" s="1"/>
+      <c r="AS117" s="1"/>
+    </row>
+    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -6701,9 +6324,6 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
-      <c r="AB118" s="1"/>
-      <c r="AC118" s="1"/>
-      <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
       <c r="AF118" s="1"/>
       <c r="AG118" s="1"/>
@@ -6716,8 +6336,11 @@
       <c r="AN118" s="1"/>
       <c r="AO118" s="1"/>
       <c r="AP118" s="1"/>
-    </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ118" s="1"/>
+      <c r="AR118" s="1"/>
+      <c r="AS118" s="1"/>
+    </row>
+    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -6745,9 +6368,6 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
-      <c r="AB119" s="1"/>
-      <c r="AC119" s="1"/>
-      <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
       <c r="AF119" s="1"/>
       <c r="AG119" s="1"/>
@@ -6760,8 +6380,11 @@
       <c r="AN119" s="1"/>
       <c r="AO119" s="1"/>
       <c r="AP119" s="1"/>
-    </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ119" s="1"/>
+      <c r="AR119" s="1"/>
+      <c r="AS119" s="1"/>
+    </row>
+    <row r="120" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -6789,9 +6412,6 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
-      <c r="AB120" s="1"/>
-      <c r="AC120" s="1"/>
-      <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
       <c r="AF120" s="1"/>
       <c r="AG120" s="1"/>
@@ -6804,8 +6424,11 @@
       <c r="AN120" s="1"/>
       <c r="AO120" s="1"/>
       <c r="AP120" s="1"/>
-    </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ120" s="1"/>
+      <c r="AR120" s="1"/>
+      <c r="AS120" s="1"/>
+    </row>
+    <row r="121" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -6833,9 +6456,6 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
-      <c r="AB121" s="1"/>
-      <c r="AC121" s="1"/>
-      <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
       <c r="AF121" s="1"/>
       <c r="AG121" s="1"/>
@@ -6848,8 +6468,11 @@
       <c r="AN121" s="1"/>
       <c r="AO121" s="1"/>
       <c r="AP121" s="1"/>
-    </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ121" s="1"/>
+      <c r="AR121" s="1"/>
+      <c r="AS121" s="1"/>
+    </row>
+    <row r="122" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -6877,9 +6500,6 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
-      <c r="AB122" s="1"/>
-      <c r="AC122" s="1"/>
-      <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
       <c r="AF122" s="1"/>
       <c r="AG122" s="1"/>
@@ -6892,8 +6512,11 @@
       <c r="AN122" s="1"/>
       <c r="AO122" s="1"/>
       <c r="AP122" s="1"/>
-    </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ122" s="1"/>
+      <c r="AR122" s="1"/>
+      <c r="AS122" s="1"/>
+    </row>
+    <row r="123" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -6921,9 +6544,6 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
-      <c r="AB123" s="1"/>
-      <c r="AC123" s="1"/>
-      <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
       <c r="AF123" s="1"/>
       <c r="AG123" s="1"/>
@@ -6936,8 +6556,11 @@
       <c r="AN123" s="1"/>
       <c r="AO123" s="1"/>
       <c r="AP123" s="1"/>
-    </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ123" s="1"/>
+      <c r="AR123" s="1"/>
+      <c r="AS123" s="1"/>
+    </row>
+    <row r="124" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6980,8 +6603,11 @@
       <c r="AN124" s="1"/>
       <c r="AO124" s="1"/>
       <c r="AP124" s="1"/>
-    </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ124" s="1"/>
+      <c r="AR124" s="1"/>
+      <c r="AS124" s="1"/>
+    </row>
+    <row r="125" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -7024,8 +6650,11 @@
       <c r="AN125" s="1"/>
       <c r="AO125" s="1"/>
       <c r="AP125" s="1"/>
-    </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ125" s="1"/>
+      <c r="AR125" s="1"/>
+      <c r="AS125" s="1"/>
+    </row>
+    <row r="126" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -7068,8 +6697,11 @@
       <c r="AN126" s="1"/>
       <c r="AO126" s="1"/>
       <c r="AP126" s="1"/>
-    </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ126" s="1"/>
+      <c r="AR126" s="1"/>
+      <c r="AS126" s="1"/>
+    </row>
+    <row r="127" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7112,8 +6744,11 @@
       <c r="AN127" s="1"/>
       <c r="AO127" s="1"/>
       <c r="AP127" s="1"/>
-    </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ127" s="1"/>
+      <c r="AR127" s="1"/>
+      <c r="AS127" s="1"/>
+    </row>
+    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -7156,8 +6791,11 @@
       <c r="AN128" s="1"/>
       <c r="AO128" s="1"/>
       <c r="AP128" s="1"/>
-    </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ128" s="1"/>
+      <c r="AR128" s="1"/>
+      <c r="AS128" s="1"/>
+    </row>
+    <row r="129" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -7200,8 +6838,11 @@
       <c r="AN129" s="1"/>
       <c r="AO129" s="1"/>
       <c r="AP129" s="1"/>
-    </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ129" s="1"/>
+      <c r="AR129" s="1"/>
+      <c r="AS129" s="1"/>
+    </row>
+    <row r="130" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -7244,8 +6885,11 @@
       <c r="AN130" s="1"/>
       <c r="AO130" s="1"/>
       <c r="AP130" s="1"/>
-    </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ130" s="1"/>
+      <c r="AR130" s="1"/>
+      <c r="AS130" s="1"/>
+    </row>
+    <row r="131" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -7288,8 +6932,11 @@
       <c r="AN131" s="1"/>
       <c r="AO131" s="1"/>
       <c r="AP131" s="1"/>
-    </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ131" s="1"/>
+      <c r="AR131" s="1"/>
+      <c r="AS131" s="1"/>
+    </row>
+    <row r="132" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -7332,8 +6979,11 @@
       <c r="AN132" s="1"/>
       <c r="AO132" s="1"/>
       <c r="AP132" s="1"/>
-    </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ132" s="1"/>
+      <c r="AR132" s="1"/>
+      <c r="AS132" s="1"/>
+    </row>
+    <row r="133" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -7376,8 +7026,11 @@
       <c r="AN133" s="1"/>
       <c r="AO133" s="1"/>
       <c r="AP133" s="1"/>
-    </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ133" s="1"/>
+      <c r="AR133" s="1"/>
+      <c r="AS133" s="1"/>
+    </row>
+    <row r="134" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -7420,14 +7073,77 @@
       <c r="AN134" s="1"/>
       <c r="AO134" s="1"/>
       <c r="AP134" s="1"/>
+      <c r="AQ134" s="1"/>
+      <c r="AR134" s="1"/>
+      <c r="AS134" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="61">
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="S32:Y32"/>
+    <mergeCell ref="S33:Y33"/>
+    <mergeCell ref="S34:Y34"/>
+    <mergeCell ref="S35:Y35"/>
+    <mergeCell ref="S26:Y26"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="S28:Y28"/>
+    <mergeCell ref="S29:Y29"/>
+    <mergeCell ref="S30:Y30"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="S22:Y22"/>
+    <mergeCell ref="S23:Y23"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="S25:Y25"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="S19:Y19"/>
+    <mergeCell ref="S20:Y20"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C25:I25"/>
     <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C22:I22"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H9">
-      <formula1>$AC$9:$AC$10</formula1>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H9 AB9">
+      <formula1>$AF$9:$AF$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
